--- a/medicine/Enfance/CotCotCot_éditions/CotCotCot_éditions.xlsx
+++ b/medicine/Enfance/CotCotCot_éditions/CotCotCot_éditions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CotCotCot_%C3%A9ditions</t>
+          <t>CotCotCot_éditions</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CotCotCot éditions, souvent abrégé en CotCotCot, est une maison d'édition indépendante située à Bruxelles créée en 2011 par Odile Flament[1].  Elle publie des ouvrages pour la jeunesse aux formats papier et numérique qui abordent fréquemment des thématiques sociales comme l'illettrisme ou la migration[2].
+CotCotCot éditions, souvent abrégé en CotCotCot, est une maison d'édition indépendante située à Bruxelles créée en 2011 par Odile Flament.  Elle publie des ouvrages pour la jeunesse aux formats papier et numérique qui abordent fréquemment des thématiques sociales comme l'illettrisme ou la migration.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CotCotCot_%C3%A9ditions</t>
+          <t>CotCotCot_éditions</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À leur lancement en 2011, les éditions CotCotCot se spécialisent dans les livres numériques sous le nom de Cotcotcot.apps[3]. Elles proposent plus précisément des livres-applications disponibles sur iPad, iPhone et iPod[4],[5]. Le premier titre de leur catalogue, On tient la forme ! de Cécile Eyen est ainsi une « une application pour iPad » qui associe « récit bilingue [et] activités d’apprentissage »[6].
-En 2012, le livre-application Bleu de toi de Dominique Maes fait connaître la maison davantage : il obtient le prix Dem@in le livre en 2013 et une exposition lui est consacré en octobre 2015 à l'ancien hôtel communal de Laeken[7]. En 2020, la maison d'édition prend la décision d'interrompre la mise à jour de l'application sur l'App Store[8],[9].
-En 2017, CotCotCot se lance dans l'édition au format papier[10] à l'occasion de la sortie de l'album Ma mamie en poévie de François David et Elis Wilk, précédemment publié au format EPUB[11]. À partir de cette publication, le catalogue se réoriente vers le papier en proposant des albums, des hors-formats, des romans et des romans graphiques[12],[13].
-En octobre 2020, naît le collectif Ła petite feuille de ¢hou[14] dont fait partie CotCotCot aux côtés de Kate'Art, Versant Sud Jeunesse, Esperluète et À pas de loups. Fédérant cinq maisons d'édition belges francophones indépendantes « fondées et dirigées par des éditrices »[15], ce collectif cherche à mettre en avant la littérature jeunesse et le métier d'éditrice. Leur activité principale est la publication d'une revue numérique gratuite aussi appelée Ła petite feuille de ¢hou[16]. Une journée d'étude lui est consacré en novembre 2021 à l'initiative de la Bibliothèque Centrale du Hainaut et le Centre de littérature Jeunesse André Canonne à La Louvière[17].
-Avec le lancement de la collection Combats en 2022, la maison d'édition confirme son engagement sur des thèmes militants comme l'urbanisation, la décroissance et la crise financière[18].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À leur lancement en 2011, les éditions CotCotCot se spécialisent dans les livres numériques sous le nom de Cotcotcot.apps. Elles proposent plus précisément des livres-applications disponibles sur iPad, iPhone et iPod,. Le premier titre de leur catalogue, On tient la forme ! de Cécile Eyen est ainsi une « une application pour iPad » qui associe « récit bilingue [et] activités d’apprentissage ».
+En 2012, le livre-application Bleu de toi de Dominique Maes fait connaître la maison davantage : il obtient le prix Dem@in le livre en 2013 et une exposition lui est consacré en octobre 2015 à l'ancien hôtel communal de Laeken. En 2020, la maison d'édition prend la décision d'interrompre la mise à jour de l'application sur l'App Store,.
+En 2017, CotCotCot se lance dans l'édition au format papier à l'occasion de la sortie de l'album Ma mamie en poévie de François David et Elis Wilk, précédemment publié au format EPUB. À partir de cette publication, le catalogue se réoriente vers le papier en proposant des albums, des hors-formats, des romans et des romans graphiques,.
+En octobre 2020, naît le collectif Ła petite feuille de ¢hou dont fait partie CotCotCot aux côtés de Kate'Art, Versant Sud Jeunesse, Esperluète et À pas de loups. Fédérant cinq maisons d'édition belges francophones indépendantes « fondées et dirigées par des éditrices », ce collectif cherche à mettre en avant la littérature jeunesse et le métier d'éditrice. Leur activité principale est la publication d'une revue numérique gratuite aussi appelée Ła petite feuille de ¢hou. Une journée d'étude lui est consacré en novembre 2021 à l'initiative de la Bibliothèque Centrale du Hainaut et le Centre de littérature Jeunesse André Canonne à La Louvière.
+Avec le lancement de la collection Combats en 2022, la maison d'édition confirme son engagement sur des thèmes militants comme l'urbanisation, la décroissance et la crise financière.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CotCotCot_%C3%A9ditions</t>
+          <t>CotCotCot_éditions</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Les Carnets » qui réunit des collaborations entre poésie et recherche graphique
-« Combats », une collection de romans engagés pour les 10–15 ans[19]
+« Combats », une collection de romans engagés pour les 10–15 ans
 « Matière vivante » qui allie recherche poétique et écologie
 « Les Randonnées Graphiques » qui regroupe les romans graphiques édités par la maison
 « Écrire et lire deux fois », une collection de textes poétiques illustrés</t>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CotCotCot_%C3%A9ditions</t>
+          <t>CotCotCot_éditions</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,12 +597,14 @@
           <t>Quelques publications primées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Je connais peu de mots d'Elisa Sartori, prix de la première œuvre en littérature de jeunesse de la Fédération Wallonie-Bruxelles 2021[20]
-Comment mettre une baleine dans une valise ? de Guridi, prix Libbylit 2022 de la section belge francophone de l'IBBY dans la catégorie « album »[21]
-Tant qu'on l'aura sous les pieds de Chloé Pince, sélectionné pour le prix The White Ravens 2023 de l'International Youth Library[22]
-On joue à cache-cache ? de Léa Viana Ferreira, prix Lu &amp; Partagé de la Fondation Battieuw-Schmidt dans la catégorie « Jeune Talent »[23]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Je connais peu de mots d'Elisa Sartori, prix de la première œuvre en littérature de jeunesse de la Fédération Wallonie-Bruxelles 2021
+Comment mettre une baleine dans une valise ? de Guridi, prix Libbylit 2022 de la section belge francophone de l'IBBY dans la catégorie « album »
+Tant qu'on l'aura sous les pieds de Chloé Pince, sélectionné pour le prix The White Ravens 2023 de l'International Youth Library
+On joue à cache-cache ? de Léa Viana Ferreira, prix Lu &amp; Partagé de la Fondation Battieuw-Schmidt dans la catégorie « Jeune Talent »</t>
         </is>
       </c>
     </row>
